--- a/Team-Data/2007-08/4-1-2007-08.xlsx
+++ b/Team-Data/2007-08/4-1-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -786,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,28 +933,28 @@
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P3" t="n">
         <v>26.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10</v>
@@ -917,16 +984,16 @@
         <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -959,28 +1026,28 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1159,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.431</v>
@@ -1242,13 +1309,13 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O5" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
         <v>0.754</v>
@@ -1257,10 +1324,10 @@
         <v>13.3</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
         <v>21.8</v>
@@ -1269,7 +1336,7 @@
         <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
@@ -1278,19 +1345,19 @@
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,19 +1390,19 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>14</v>
@@ -1496,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>11</v>
@@ -1538,13 +1605,13 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1681,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>19</v>
@@ -1699,7 +1766,7 @@
         <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.613</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,7 +1843,7 @@
         <v>40.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.468</v>
@@ -1788,16 +1855,16 @@
         <v>19.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>11.4</v>
@@ -1815,49 +1882,49 @@
         <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y8" t="n">
         <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="AC8" t="n">
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>11</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>16</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.716</v>
+        <v>0.712</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,25 +2028,25 @@
         <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
         <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
@@ -1991,13 +2058,13 @@
         <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.6</v>
@@ -2009,7 +2076,7 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB9" t="n">
         <v>97.5</v>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
@@ -2051,13 +2118,13 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2069,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2081,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
         <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.608</v>
+        <v>0.616</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J10" t="n">
         <v>89.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.352</v>
@@ -2161,19 +2228,19 @@
         <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V10" t="n">
         <v>13.1</v>
@@ -2188,40 +2255,40 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.8</v>
+        <v>111.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>5</v>
@@ -2263,10 +2330,10 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
         <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J11" t="n">
         <v>81.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V11" t="n">
         <v>13.9</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2370,25 +2437,25 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
         <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2403,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2415,16 +2482,16 @@
         <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>6</v>
@@ -2451,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2582,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2615,10 +2682,10 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2791,16 +2858,16 @@
         <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,13 +3025,13 @@
         <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
@@ -2994,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3173,13 +3240,13 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -3316,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.446</v>
@@ -3429,25 +3496,25 @@
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
@@ -3468,10 +3535,10 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
         <v>28</v>
@@ -3486,10 +3553,10 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3498,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
@@ -3507,7 +3574,7 @@
         <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3522,10 +3589,10 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3534,10 +3601,10 @@
         <v>22</v>
       </c>
       <c r="AX17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY17" t="n">
         <v>21</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>20</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>0.26</v>
+        <v>0.264</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
@@ -3608,22 +3675,22 @@
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R18" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>41.2</v>
@@ -3635,7 +3702,7 @@
         <v>14.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.8</v>
@@ -3650,7 +3717,7 @@
         <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC18" t="n">
         <v>-6.5</v>
@@ -3677,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3722,7 +3789,7 @@
         <v>28</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.413</v>
+        <v>0.419</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J19" t="n">
         <v>78.7</v>
@@ -3787,16 +3854,16 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N19" t="n">
         <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q19" t="n">
         <v>0.731</v>
@@ -3805,7 +3872,7 @@
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
         <v>42.4</v>
@@ -3817,16 +3884,16 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
         <v>22.5</v>
@@ -3838,19 +3905,19 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3862,25 +3929,25 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.699</v>
+        <v>0.694</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3963,7 +4030,7 @@
         <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3975,22 +4042,22 @@
         <v>0.393</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q20" t="n">
         <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -4011,13 +4078,13 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
         <v>100.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
         <v>28</v>
@@ -4062,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>0.27</v>
+        <v>0.274</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
         <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R21" t="n">
         <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
@@ -4196,13 +4263,13 @@
         <v>20.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4244,7 +4311,7 @@
         <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
         <v>47</v>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.627</v>
+        <v>0.635</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4330,31 +4397,31 @@
         <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M22" t="n">
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P22" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.4</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4417,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4429,10 +4496,10 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,16 +4511,16 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="n">
         <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81</v>
@@ -4518,16 +4585,16 @@
         <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O23" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P23" t="n">
         <v>26.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R23" t="n">
         <v>13.2</v>
@@ -4536,10 +4603,10 @@
         <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
@@ -4560,16 +4627,16 @@
         <v>21.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4617,10 +4684,10 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4629,16 +4696,16 @@
         <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.676</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
@@ -4703,13 +4770,13 @@
         <v>0.392</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P24" t="n">
         <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.783</v>
+        <v>0.786</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4721,13 +4788,13 @@
         <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X24" t="n">
         <v>6.5</v>
@@ -4736,34 +4803,34 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="n">
         <v>5</v>
       </c>
-      <c r="AF24" t="n">
-        <v>6</v>
-      </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4811,13 +4878,13 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="n">
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,10 +5119,10 @@
         <v>36.9</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
@@ -5067,22 +5134,22 @@
         <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
@@ -5097,7 +5164,7 @@
         <v>4.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
         <v>22.4</v>
@@ -5109,19 +5176,19 @@
         <v>102.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -5148,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>7.5</v>
@@ -5246,25 +5313,25 @@
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O27" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
         <v>21.1</v>
@@ -5285,16 +5352,16 @@
         <v>18.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5333,16 +5400,16 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>17</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
@@ -5366,7 +5433,7 @@
         <v>23</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5509,7 +5576,7 @@
         <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5521,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>3</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5545,7 +5612,7 @@
         <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5679,10 +5746,10 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>15</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2007-08</t>
+          <t>2008-04-01</t>
         </is>
       </c>
     </row>
